--- a/doubanbook/doubanbook.xlsx
+++ b/doubanbook/doubanbook.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,6 +370,2145 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>红楼梦</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>素梳影</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>亲戚是干什么用的大全</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>红楼梦</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>沉歌</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>满纸荒唐言，一把辛酸泪。都云作者痴，谁解其中味。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>红楼梦</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>暗夜花儿开</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>后四十回的续作者明显不如曹雪芹那样有才华，情节安排上也较为匆忙，完全没有曹雪芹那样的气定神闲。总是在想，为什么这样一部佳作，会遗失了后面的章节？难见到全本的曹雪芹所著《红楼梦》，终归是一件遗憾。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>红楼梦</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>时间之葬</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长这么大，到今天才把这部奇书读完。觉得并没有那么多微言大义，倒是曹雪芹的文笔实在了得，对人的那些细腻情感拿捏得十分到位。特别想说的一点是，坚决认为林黛玉不能算是什么完美的理想主义者，她非但不完美，而且是毛病最大的一个。所有的问题又都归结于三个字——看不开！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>红楼梦</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>二月鸟语</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永远只读到80回。。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>杀死一只知更鸟</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cenderella。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 我喜欢这本书的结尾部分，文字很美。这个故事不仅仅关乎父爱，还关乎平等和民主，关乎人类的文明与进步。阿蒂克斯是个先进于时代的人，所以他的孩子一定不会泯然众人。怪人阿瑟是世俗意义上的怪人，可其实他那样温暖。梅科姆镇上的大多数人都平凡又善良，莫迪小姐在茶会上紧紧握住斯库特的手，泰勒法官尽可能引导陪审团做出正确的判断，赫克警官是保有正义心的警察。怪人阿瑟留在树洞里的香皂娃娃不走的怀表和表链是他对孩子们最...</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>杀死一只知更鸟</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>岕川</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>十年前BBC曾经票选Women’s Watershed Fiction，第一名是傲慢与偏见，第二名是知更鸟，温特森有三本书入选，我记得似乎桑德拉也有作品入选，范围还比较广。我知道你们都是很讨厌榜单这种存在的。。但是这真的是一个很棒的榜单。没有这个榜单，我就会错过许多我现在很喜欢很喜欢的作家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>杀死一只知更鸟</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>夏天。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>书里面，迪儿面对最终的判决说：“我长大了要去当小丑，我对这世上的人除了大笑没什么可做的，干脆我就加入马戏团，笑他个痛快。”  嗯，据说迪儿的原型就是卡波特~</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>杀死一只知更鸟</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>三尺水</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>“有时候，我觉得自己做家长很失败，可是我就是他们拥有的一切。在杰姆仰视别人之前，他首先仰视的是我，我希望自己正直地活着，以便能坦然面对他。” “勇敢是：当你还未开始就已知道自己会输，可你仍然要去做，而且无论如何都要把它坚持到底。你很少能赢，但有时也会。” “但是在我能和别人过得去之前，我首先要和自己过得去。有一种东西不能遵循从众原则，那就是人的良心。” 这真的是一本很伟大的书，阿蒂克斯是灯塔一般的...</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>杀死一只知更鸟</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>萝西在湖边散步</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">在一个盛产手提电脑和iPod，思想就像空荡荡的房子一样的繁华社会里，我依然与我的书本迈着缓慢的脚步前行。哈珀 李
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>局外人</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[已注销]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>这实在毫无意义，我没有什么要补充。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>局外人</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mignon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>一开始我就站在主角的一边。突然想起高中同学对我评价:你是一个没有正常道德感的人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>局外人</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Veronica.C</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>“对于世界，我永远是个陌生人，我不懂它的语言，它不懂我的沉默，我们交换的只是一点轻蔑，如同相逢在镜子中”</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>局外人</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[已注销]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>其实很多人跟男主人公本质一样  只不过男主人公不懂得扮演能满足社会需求和大众希望看到的角色，同质化的洪潮无法忍受一个随心所欲释放自我的人，他太直白太坦诚了，没有按照那些审判他的人所希望看到的表现出痛悔愧疚之情；因为没能满足他们的控制欲，他被无情的弄死了。这种控制欲美名其曰道德，但我没看出来这份“道德”跟他犯的过失杀人罪有什么丝毫的关系。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>局外人</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pansenberg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>很难想象加缪写完这本书时才26岁。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>笑傲江湖（全四册）</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>·</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>令狐冲手中拿着一只死蛙，连连摇晃，说道：“大侠二字，万万不敢当。天下哪有杀青蛙的大侠？”那姑娘笑道：“古时有屠狗英雄，今日岂可无杀蛙大侠？”——过于暴力</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>笑傲江湖（全四册）</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>光寒</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>出身寒微的大学班长爱上班花兼教授女儿，教授女儿搭上了插班的富二代，甩掉了班长备胎。班长毕业进入社会，无权无势，混得很凄惨，但狗屎运得到了富二代女友的垂青，利用聪明才智帮助女友父亲夺回了公司控股权，从此走上了人生巅峰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>笑傲江湖（全四册）</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>神威</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>这本书对政治有所影射，是鹿鼎记之前金庸先生少有的对政治发表见解，文字情节都没话说，人物没什么特别喜欢的，只是对林平之深深叹惋，看着小林子一点点黑化真是很遗憾啊，酒楼笑骂余沧海一段，林与令狐二人相映生辉，可惜人家命好，他命苦啊，本来就没多少路好走，于是一步步被命运推向偏激无奈的结局，另外桃谷六仙实在是太糟糕了，倒不是描写差劲也不是不合情理，只是给后世的武侠写手提供了傻瓜数人组的mode，从此我们不得...</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>笑傲江湖（全四册）</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ふふちゃん</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>有我最爱的金庸笔下男女主角，还有心中金庸笔下最理想的恋爱</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>笑傲江湖（全四册）</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>yamamaya</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>写作时代是中国的文革，基本上里面所有人物都处在压抑与阴谋的阴影里，偶像崇拜，权利的斗争，人伦关系的沦丧。令狐冲最后看似逃离了一切，却也没有获得自由，个人心中金庸真正的五星作，讲中国人与社会的关系非常有深意的一部作品。看完的时候，我居然不禁在想chinese这个tag本身就是一种诅咒，本应该消亡的东西依旧挟持着我们的心灵，真是太可怕了</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>霍乱时期的爱情</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[已注销]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>单独第一章非常完美。越往后越泄力。到最后一章已经很不耐烦。爱所有她和医生的部分，但不觉得她和惨绿游艇大亨爱过彼此。只是把年轻的时光一路带在身上留着年老时用吧。《霍乱时期的变老》。看到马尔克斯访谈说，不是在写老年人的爱情，写的只是一个人的一生情史，一个人在不同的年龄段不同的爱情观。非常同意。时常怀疑所谓的“爱情”这种东西。大概终其一生，我们只是抱持着自己形态千变万化的对“爱情”的想象（或者叫理解），...</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>霍乱时期的爱情</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>YVE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>不知道是翻译的好 还是本身马尔克斯文笔太美 或是拉丁文的奥妙？反正之前读多了美国小说例如海明威那种简明直接型的话痨为主的描述又或者日本小说例如村上那种淡淡的文笔以后 马尔克斯简直让人燃烧 要华丽可华丽 又不多余造作 除了人名容易弄混 全书读下来都是享受 内容更没得说 超越时间的爱情 离死亡越近越浓烈</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>霍乱时期的爱情</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>丹朱AI🌵</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>我猜这本四百页的书并非是为了歌颂爱情，而是为了呈现人生，爱情是杂乱而繁茂的生命之树上温情脉脉的一缕夕阳。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>霍乱时期的爱情</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>小心和小欣</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>我曾经以为《挪威的森林》是我喜欢的小说，直到我遇到《不能承受的生命之轻》；我一直以为《不能承受的生命之轻》是我最喜欢的小说，直到我遇到《霍乱时期的爱情》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>霍乱时期的爱情</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DizzyWhale</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>爱情，首先是一种本能，要么生下来就会，要么永远都不会, 以及人心的房间比婊子旅馆里的客房还多</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>平凡的世界（全三部）</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>水湄物语</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>能够改变人生的那一类书</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>平凡的世界（全三部）</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ayi</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>虚伪</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>平凡的世界（全三部）</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>陈日</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>是不是我粗俗。真的好无聊</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>平凡的世界（全三部）</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[已注销]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>理解不了这么高分都是怎么打的。匠气太重，自作聪明，充满革命现实主义那种莫名其妙的东西。语言平庸甚至有时做作，人物扁平苍白，冲突乱七八糟，故事七零八落，思想简直就差直接高唱一曲忠诚的赞歌。大概唯一可取的地方就是真实，可它给我的直接感觉就是一个高中生费劲巴拉地日记般把所见的毫无筛选的记录了一遍，大哥，大部头不是这样写的！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>平凡的世界（全三部）</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>陈毓秀</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>如题，确实只是个平凡的世界</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>明朝那些事儿（1-9）</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>牧</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>故事还是好看的，唯一的缺点在于主次不分。讲事情要有主有次，顺着一个线索，关键的重点讲，辅助的稍作描述，逻辑才不会乱。作者最常出现的情况就是一写就刹不住，顺带提及的人物也要浓墨重彩占很大篇幅，一条线跑偏成别的事，看着看着就看不动了</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>明朝那些事儿（1-9）</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cornlee</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>读这本书才知道王阳明以及孙承宗的伟大。按照自己的方式去度过人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>明朝那些事儿（1-9）</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>风语者阿德</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>作为史书的话不甚严谨，作为小说的话文笔又欠佳，只能看作比教科书更通俗一点的历史启蒙读物。盛名之下其实难副。。。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>明朝那些事儿（1-9）</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>欢乐分裂</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>一个寒假看完，不拘一格拆解历史，虽不无主观，但的确很好看；最喜欢2、3集，万国来朝，文治武功，宫闱权斗，兄弟反目，于谦、王阳明伟立光明；中期妖孽盛行，流派林立，皇帝老儿冷眼旁观群臣斗；后期党同伐异，万象争流，妖人牛人猛人一锅粥，270多年的帝国灰飞烟灭，浪滔滔千古风流人物，尽成烟云；官场如职场，厚黑学从来没消失过！</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>明朝那些事儿（1-9）</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sghdteiwuvncm</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>公务员写史 眼光到底还是公务员那一套 通俗性倒是够了 毕竟这是个读文言文等同于装逼的年代</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>沉默的大多数</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>猴皮筋</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>傍晚你坐在屋檐下，看着天慢慢地黑下去，寂寞而凄凉，感到自己的生命被剥夺了。当时我是个年轻人，但我害怕这样生活下去，衰老下去。在我看來，这是比死亡更可怕的事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>沉默的大多数</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>汪啊我是虎虎</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>看了一半，难以为继。语言风格是揣着聪明装糊涂，可能是时代需要。关键是这聪明在我看来还不够聪明，不过想想，在那个时代，这应当也是冒险了。庆幸自己生在了现在。唯一的收获是，书中说，看杂文看评论的人，永远不能真正了解一门艺术。算是对自己一记警钟。想要广泛涉猎，高谈阔论，却又不曾自己真正深入过什么，算是一种对艺术的亵渎吧。希望自己多一点沉淀。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>沉默的大多数</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A Story Teller</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>不乏有趣的观点，但有点絮叨，对罗素更是不厌其烦的引用。豆瓣评分居然9.8,是盲目崇拜还是我打开书的方式不对。倒是在地铁看他妻子写的悼念文章，看到当众流眼泪。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>沉默的大多数</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>周冲</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>最最最最最最心仪的作家啊，喜欢得想低低地叫唤．．．</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>沉默的大多数</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>小岩井</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">我看现在是冷漠的大多数了
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>围城</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>一千</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>初中的时候我就知道自己长大是个废柴了。我很坦然。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>围城</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>失控芭乐</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>有人说匠心太重，我倒喜欢这样的匠心。令人捧腹的句子不在少数，爱情与生活在调侃中被扒去鲜亮的外壳，讽刺到骨子里，真是又痛又要看下去。这书就是真理，赤裸裸啊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>围城</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>第五象限</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　我不禁想起了培根的论读书，读书不应该为了炫耀，装潢，而应该是为了丰富自身，提升自己的精神涵养吧。一个读书人骨子里的干净和纯粹，那种浑然天成的优雅气质，和无所谓的态度，却不是一个心怀杂念的人能够比得了的。知道比不了，就可以放弃比较的心，炫耀的心了。就可以把读书这件事，放得低些，再低些，低到功利心都无趣了，褪去了</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>围城</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>春焼辰</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>看着门里门外的人进进出出 自己却不小心就这样坐在门里看了一辈子</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>围城</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>我不是盆栽啊</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>男人的西服、礼帽、衬衫、皮鞋。女人的旗袍、高跟鞋、草帽、丝巾。统统被夺了去，他们赤裸裸的、所有真实与不堪全摊开来。男人的怯懦，女人的刻薄。血液流动，肌肉收缩，蓝的静脉，红的动脉，白色泛黄的骨骼。这是唯唯诺诺的、自大的、逃避着的、自欺欺人的中国人。有人的地方就有政治。男男女女，也不过一场博弈。可是我们谁也离不了谁。还是冯唐坏水最多：他说希望上天安排张爱玲和钱钟书凑一对，看谁刻薄死谁！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>人类简史</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>礼士路西岛秀俊</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>加长版知乎答案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>人类简史</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>小护士毒舌猫-虞兮虞兮奈若何</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>没期待中那么好。主要问题是证据到结论的推导太轻松了。越靠近近代结论越多证明却越来越少。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>人类简史</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>farrell</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Jared Diamond后继有人，实在令人兴奋。76年出生的学者啊，起码还有25年可以产出优秀的作品。这本书最差的是北大历史系教授高毅写的序，明显没读懂的样子，看来是超出了历史系传统的研究范围，还不如让我来写。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>人类简史</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>不勒个二</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>看《三体》的同时看的这本书，不经意间发现两本书形成了某种互文，当然这种互文更强调的是对我所造成的震撼的一致性。实际上这本书在某种程度上是对人生三大问题的解释，然而解释完之后只会让人感到无助和虚空。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>人类简史</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Eve|Classified</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>这应该是不止是历史，而是博物学著作。宏观的视角不仅联系起生物物理经济政治社会哲学等等各学科，更超越了人类中心观念。如果你在任何一个学科领域有参悟不透的问题，我想阅读此书就能找到一个清晰化你的疑虑的指向标。比如我一直以来的疑问就是理性与天性的矛盾，神话存在的深远意义，我想了那么多年，居然在这里找到了农业革命指出的解释。我一直说这本书就像“外星人保罗在地球考察后的研究论著”，因为它的趣味性十足，就像当...</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>哈利•波特</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>猫饼饼</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>这是我小学第一次看到密室，走回宿舍的路上脑袋里还是蛇怪的样子。这是我晚上和同学从学校走回家，在路上互相大声念着咒语。这是我初中第一次克服恐惧，为凤凰社做英文配音，得到全班掌声。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>哈利•波特</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Passionfruit_D</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>小学经常做梦梦到猫头鹰寄来了一根魔杖和一封用墨绿色墨水写就的厚厚的信</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>哈利•波特</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>牛奶海漫游</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>人生中唯一读到废寝忘食的书。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>哈利•波特</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>文刀</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>社会_文学</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>哈利•波特</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>喵星人徒爪煎鱼</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>读书top250补标，没什么说的，五星</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>安徒生童话故事集</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>人在清涼國</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>这个世界的丑陋与寒冷，在安徒生那里得到美丽而温暖得阐释</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>安徒生童话故事集</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(๑⁼̴̀д⁼̴́๑)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安徒生童话伴随每个孩子的童年😂</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>安徒生童话故事集</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>宇小敏</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海涅写信给安徒生说：一个人若有心，心中有爱，那么这个人将不得安稳。安徒生就是那个心中有爱却过得安稳的。感谢造物者留了一个安徒生给世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>安徒生童话故事集</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>可缓缓归矣</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>从小看了无数遍</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>安徒生童话故事集</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>半辈子</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>谁小时候没读过安徒生童话 啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>撒哈拉的故事</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>福鹿</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>读的三毛的第一本书，也用这本书把阿彤带入了三毛的世界。最爱的两本之一，嗯，另一本是《温柔的夜》。爱她，爱她，爱她。（当然，也爱荷西。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>撒哈拉的故事</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Chandelier</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>荒山之夜里对生死际遇的轻描淡写，死果里的扑朔迷离。上世纪70年代的故事和语言，幽默生动 （“你伤害了我的骄傲”LOL）读起来没有任何隔阂。话说荷西三毛这两人真能折腾。。。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>撒哈拉的故事</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>娅</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>。。。心伤</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>撒哈拉的故事</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>劈头士》睁木</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>三毛的文字其实没有特别出挑的地方，但是合成一篇，整个却显得真实、清爽。她很好地遵循了白话文“有什么说什么，该怎么说就怎么说”的宗旨，而且她聪明在不在散文中论理，不作生硬的哲思，单纯就事论事，从而反倒能让人身临其境~~印象最深的是她和荷西去偷看别人洗澡灌肠，再如三毛考驾照的那几个考题，好笑极了~~而读到他们遇到三个疯子袭击则心提至喉~~看散文，以前喜欢过余秋雨的辞藻，现在越来越喜欢三毛这类的平淡，平...</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>撒哈拉的故事</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>薇羅尼卡</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>与荷西的爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>天龙八部</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>诸葛若见</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金庸武侠巅峰之作</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>天龙八部</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>郭发财</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>因为众生皆苦，便觉得自己也不是很苦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>天龙八部</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>陆小包</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>从此很讨厌表哥这么一个称呼</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>天龙八部</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>chili</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">武侠是成人的童话
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>天龙八部</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>恶魔奶爸Sam</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>经典武学起于春秋，到北宋达到极盛，南宋有所衰落，元末因明教兴盛中兴。明代更有了东方不败等大师。但期间伽利略的出现已预示其衰落。康熙年间出现牛顿，梯云纵灭绝。道光年间出现卡诺，玄冰掌灭绝。尤其是力学定理建立后，内力和轻功全部消失，梯云纵这种只需吐纳练便可自带反重力系统的轻功彻底消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>房思琪的初恋乐园</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>冬惊</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>或许是因为成了社会热点，这本书的文学性被过誉。有一些比喻很新奇，但还有很多令人费解。父母的形象很苍白，大姐姐的形象也像琼瑶剧里出来的。作为处女作确实已经展现出作者的天赋，能写出来亦是勇气可嘉。中国这样的社会对房思琪这样的文学少女是异常残酷的，因此很多时候我觉得女人不爱文学也很好，毕竟中国文学（尤其旧文学）里面可少不了那种李国华喜欢的情趣。如果我有女儿，一定不让她沉湎于哀哀怨怨的旧文学。书里面竟然没...</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>房思琪的初恋乐园</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Blavatsky</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>很早就读过了，这书不适合从文学角度打分。结合最近徐钢的事，还是推荐没读过的都去读一读， “对他人的苦难多一点想象力”，即使生活从来不易。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>房思琪的初恋乐园</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>寥原</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>这里来说一说被大家忽视的两个方面：1.作为一部社会作品，它不只是描述诱奸、强奸的过程，同时又有溺水者扭曲的自救——即，令自己爱上老师。这种思想并未得到及时的救助。因此李国华固然应打击，但更重要的、同时也是这个社会更应当在意并实践的是：与其一昧追杀人渣，不如早一步挽救疏导受害者因侵犯过程扭曲的受害者心理及精神健康。2.在行文过程中通过文字已看出逻辑愈发紊乱与歇斯底里。这里并不是严苛地谈她的写作技巧，...</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>房思琪的初恋乐园</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>布袋头</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>文字特别考究，很多细节都很震撼。人物塑造上，不管是李国华极端得坏，还是毛毛先生极端得痴情，都像是滤镜后面的世界。另外看了之后多明白了一点为什么青少年时期的创伤对人影响那么大，因为它可能会束缚住一个人的好奇心， 让一个青年对什么事情都不感兴趣，而是完全的沉浸在自己不能抵抗的自责和反思里。难以想象作者的父母读这本书时的心情</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>房思琪的初恋乐园</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>李避蛮</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>由于与期望偏差太大扣一星。因为是为控诉和抽离情绪而写的书，在小说的文学性上未免有所削减。该书的主题确实十分具有意义：强奸、猥亵少女、老师的身份为犯罪带来的便利、学生尤其是女学生所面临的困境…但有些失之大气，使用绮丽的句段使深邃凝练感尽失，而也未将华美升华到一种令人惊艳的程度，有时为比喻而比喻，为修辞而修辞，没有做到完全为小说整体服务，还有台语的语言风格让作品显得忸怩。情节不够流畅甚至混乱，且并非给...</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>动物农场</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>陰陽魚</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>這書其實是高中時候和一九八四一起看的。那時候我給了一九八四五星。嚴格來說。以我現在的看法。這兩本書分別能給兩星已經很不容易了。這說明了我小時候的一部分無知。小時候我也覺得批判性非常重要。後來經過了漫長的訓練。才明白，很多時候這種所謂批判，只是建立在自己無知的虛構之上。其本質便是愚蠢地自己批判自己之愚蠢。可謂愚不可及。要觸及實際的東西很難。要觸及實際的東西的本質，並因之以提出恰當的問題更難。相比之下...</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>动物农场</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>莲渊</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>短短112页，却细致地展现了极权如何产生发展控制农场的一切。觉得恐惧的地方在于记忆如何被轻易的篡改，有什么是可以确信的？</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>动物农场</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>肥老醜·殘🐰</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>乔治·奥威尔是对S0cia1ism最牛x的预言大师！！！！猛力推荐！！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>动物农场</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>严彬</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>读《动物农场》之一
+——为什么猪也能统治世界？
+1. 至少有一头猪最先感受到不公，认清敌对势力
+2. 至少这头猪拥有一定领袖气质和能力
+3. 能说会道，能煽动群体
+4. 先于同类掌握了一些别的知识
+5. 把握了一次时机，发动了一次成功的起义，将敌对势力赶下台
+6. 重建秩序，实现初步的公平
+7. 进一步重建秩序，猪开始崛起
+8. ……猪最终成为另一种“人”，开始统治世界
++...</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>动物农场</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>燕仰</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>「凡動物一律平等，但是有些動物比別的動物更加平等。」</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>福尔摩斯探案全集（上中下）</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>珍珠大爷</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sherlock Holmes  forever</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>福尔摩斯探案全集（上中下）</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>逍遥兽</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>少年时一篇不漏地看完  那时候怎么会有那么多时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>福尔摩斯探案全集（上中下）</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>西月桃桃</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>历时3个月，带着它走过2个国家，9座城市，终于重温了福尔摩斯全套书籍。由于第一次读的时候是小时候，并且只读了一两本，所以记忆并不深刻。在各种影视化作品和当代推理小说已经不能满足我的时候，大师的经典之作让我重拾对推理的热情。对人物的描写，对场景的建模，加之对推理过程的精细解读，同时又不失故事的趣味性，真可谓是侦探小说之楷模。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>福尔摩斯探案全集（上中下）</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>神威</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>想重温一次的，可是发现每个故事都已经深深刻在了心里，我拥有的那本盗版的纸张很糟字很小却没有错字的福尔摩斯陪伴了我整个小学，这本书对我的意义不只是一本书而已了，福尔摩斯，3Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>福尔摩斯探案全集（上中下）</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>碧落亦然</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>小学时看得最疯狂的一套书，由头至尾完全就是一口气看下来的！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>小王子</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>眠去</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>十几岁的时候渴慕着小王子，一天之间可以看四十四次日落。是在多久之后才明白，看四十四次日落的小王子，他有多么难过。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>小王子</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>萌塔 C-137</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>是你浪费在我身上的时间 使我变得 如此珍贵</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>小王子</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>猫伯爵</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>他像一颗树那样倒了下去</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>小王子</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>電気ブラン</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>如果你是小王子，我就是那捉鸡的狐狸，求你驯养了我，却又对你说要你回去对你的玫瑰花负责。还大方地以为只要看见了麦田就会想起你头发的颜色。我却永远无法随你回到B-612星球。现在觉得，我可能只是猴面包树而已。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>小王子</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>杜边生</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>我老觉得小狐狸跟小王子是在搞GAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>白夜行</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Asa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>看完这本觉得再也不会看东野圭吾了……（豆瓣闲人和煞笔真的很多，四星不会看吗？豆油太多不得不解释一句，这个短评的意思是：这是东野圭吾的巅峰之作集大成之作，再看其它的觉得显得太轻薄套路了，别豆油我了，有病吗？就算我不喜欢你喜欢的书又怎样啊？）</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>白夜行</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>☂3呼</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>一般推理小说让读者做侦探。作者是最后的法官。。。东野圭吾一点都不屑这一套。把所有的线索一点点浮现出来，任由你拼凑组合，却直到最后一页也不肯把真相说死说穿。是是非非十九年。原来我们才是这个故事最后的法官。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>白夜行</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>夏维克 Vic.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>世上有两样东西不可直视 一是太阳 二是人心</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>白夜行</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Cambrian™</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新版封面，严重剧透。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>白夜行</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>麋鹿橙</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>张无忌的妈妈也说过 不要轻易相信漂亮女人 她们的演技和城府都是你无法想象的 无删减版本比之前的版本多了关于性的描写 阴茎和乳房等词汇也直接被接纳进来 前十章用来构建人物关系和埋下案件伏笔 从第十章开始抽丝剥茧地隐现真相 枪虾和虾虎鱼（雪穗和桐原）的关系日渐明朗 遗憾的是关于后半段作者的笔锋开始出现倦怠 没有给出很完整明确的指示或者暗示 对于最后整体的真相的揭露也并没有很吃惊 除了娈童之外 其他的因...</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>三体全集</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>臭皮囊</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>不过三部下来可以确定的是，刘老师的女性观真的有问题……</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>三体全集</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Manta</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>这么个硬核的科幻是怎么装下了程心这朵白莲花婆娘的…</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>三体全集</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>杨素瑶</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大刘，你打开了一扇门，门外的世界一片黑暗，这黑暗中蕴藏的故事，永远讲不完。</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>三体全集</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>陈小闷</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>第一点，作者有些话唠，难道是科幻小说界的语文老师吗？！写那么字难道是为了赚稿费哇。@第二点作为三体小说的第一部，感觉很平淡啊，没有那么想象中的精彩，到最后结尾就都成了虫子吗。第三点，因为是第一次看科幻小说，难道科幻小说的宇宙观就酱紫吗，感觉虽然描述的很宏大，但很空洞。故事的结构性不是很强，作为小说而言，章节性的断裂不连贯。看完第一部总体感觉没有看第二部的必要了。目前看到第二部中部，果断弃，看不下去...</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>三体全集</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>纷飞柳如絮</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天才之作！永载史册！震撼！对人类对宇宙命运的终极拷问！时间一旦拉到宇宙尺度，那种虚无缥缈的空虚感令人震惊！三体，让看完的几乎每个人都产生了前所未有的宇宙观！如此伟大的幻想类小说不该只通过星云和雨果奖来认可，这种探索人类认知和创造力极限的文学作品，必须不分界线地和马尔克斯、泰戈尔、萨特们并列而立。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>chimchim</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>最爱的书没有之一。迄今为止读过七遍，但是仍然还有非常多觉得困惑和不解的地方，这些疑惑是我更加深入地去了解历史和查阅资料的动力，由此也将我带到了一个更为广阔和残酷的领域，关于政治，关于人性。这本书带给我和教会我的东西实在太多太多，并且将终生受用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>挥雨</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>"老大哥正在看着你"。“我们将在黑暗中相见”。一个英国人在1944年写的寓言，却预言了大量几十年后在中国发生的事情。关于人性、政治和专制。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>KAKAGOGO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>如果一个政府没有把这本书列为禁书，它的原因一定是：觉得我们不够民主不够自由？看看这本书吧！</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fei</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>我知道为什么这本书在goodreads上评分那么低，但是在豆瓣上评分那么高。goodreads上的人是在看一本似懂非懂乃至很多时候有点boring的政治预言，而豆瓣上的人看的根本是自己的故事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>掉线</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>看到“那本书”里的内容，令人咋舌，那一段完全可看做乔治奥威尔的个人政治观点阐述。这样精彩的书却被许多人只当做黑天朝黑党的工具，实在太狭隘，乔治奥威尔的担忧是根植于人性的，而不仅是对某个政治派别</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>飘</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>东篱</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>“过去的已经过去了，死了的已经死了，活着的还要继续活着。”看完本书令我印象最深的一句话。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>飘</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>柯柯柯尼</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>关于这本书，摘抄做了几大面，更不用说一些零零碎碎的注释分析，似乎足以写下一篇冗长但满怀真诚的书评。可是提笔时却发现，这一切都关于母亲曾告诉我的故事，关于爱和奢望，关于战争和毁灭，关于奋斗和牺牲，关于暗流汹涌的意识形态斗争和虚伪的和平。有太多的话可以说，又怎么样都说不完。</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>飘</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>良弓</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>差不多半年的时间间隙里重看了一遍。快结束时，巴特勒问斯嘉丽多大了，她答28。我突然被狠狠震惊到，两次看书，几次看电影，都觉得看了他们蓬蓬勃勃跌跌荡荡沧海桑田的一辈子，可她才28！</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>飘</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>寂地</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>我读的第一个长篇小说.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>飘</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>朵拉和朵拉</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>一本好的小说不是爱情小说，不是历史小说，而是一本社会性的小说．</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>百年孤独</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>丹朱AI🌵</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>回忆没有归路，春天总是一去不返。车窗外瞬间闪过世间万象，如同将一首飞逝的长诗撕成碎片向着遗忘之乡一路抛洒。</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>百年孤独</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>幽篁</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>为什么我觉得不好看呢？是不是我没文化看不懂啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>百年孤独</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Caramel_Grace</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>伟大的小说便是这样，倾注了作者全部的精神和价值重塑一个世界。而人物、情节、文笔、风格不过是帮助组织架构这伟大工程的工具。原来以为会读不下去，但一开页则根本停不下来。翻译也很加分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>百年孤独</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Gala</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>庆幸是在我22岁的时候读到，没有太晚</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>百年孤独</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>我的睡前读物，确实起到了很好的催眠效果，每当我纠缠于这个奥雷利亚诺是哪个奥雷利亚诺的时候就倦意袭来倒头就睡。前半本的时候还勉强能搞清楚他们家的复杂关系，后来就彻底放弃了，我已经不在乎角色之间的关系，就专注于情节好了，WELL，一些隐喻呀之类的还算看明白了。但我真是烦啊……他们家人搞得神奇的过得苦的，特别是乌尔苏拉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>老汉手植石榴树</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>眼里看的是别人的故事 心里想的是自己的生活</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>七盐阿宝2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>一打开就一定要看完才睡！</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>進撃のyuki</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>从凤霞难产而亡开始，眼泪止不住地掉，每每回忆时也免不了眼角的湿润。正如余华在序言中说到的，时间是最好的见证，时间造就了一切：苦难、喜悦、悲惨等。也是时间让我们看到魔力，看到活着的魔力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>D君</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>意外的好读，应该是我读过的国内小说里最好读的，没有之一。读完一直纠结“有必要这么惨吗！”平静下来想想，确实可能这么惨。只能说，还好改革开放了。感谢邓小平。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>伊莎贝尔·慕卿</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>看见了人生悲苦，看见了底层人民的乐观和坚强，看见了生命的柔韧，看见了命运和岁月那不动声色的力量。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>三国演义（全二册）</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>胡蝶</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东吴控萝莉 魏国爱人妻 蜀国全搞基</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>三国演义（全二册）</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>伯爵在城堡</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>我是三国控，不解释。最喜欢的一部古典文学。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>三国演义（全二册）</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>匿</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>奉孝延寿一年，演义至六十回足矣。</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>三国演义（全二册）</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>芦哲峰</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>通篇都是权谋，文争武斗。其中，最有心计、最会骗人者，称王称圣称君主；最有武功、最会杀人者，称侠称将称英雄。尔虞我诈、杀人如麻都不算事，只要贴上某一种道德标签，比如“忠”，比如“义”，不论它是如何的卑鄙与残忍，都可以变得正大光明，足以垂范后世。历史不过如此。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>三国演义（全二册）</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>不要焦虑浣熊妹</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>看的是再版的，好惭愧啊应该是小学时候就读的书。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
